--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5F0F21-4DEB-41FF-8632-F7393FDE95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB883C-0445-49C2-B7B8-6610C5980998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>ano</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>31-11-2022</t>
+  </si>
+  <si>
+    <t>31-02-2023</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2458,7 +2461,12 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2"/>
+      <c r="A219" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B219" s="6">
+        <v>38.700000000000003</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB883C-0445-49C2-B7B8-6610C5980998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D90D3-81A1-4F32-910C-2BF47A95991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2469,12 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2"/>
+      <c r="A220" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B220" s="6">
+        <v>40.98</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D90D3-81A1-4F32-910C-2BF47A95991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DB9E7-4E13-44D9-A3AE-2C98D6EA1096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>ano</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>31-02-2023</t>
+  </si>
+  <si>
+    <t>31-04-2023</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2477,7 +2480,12 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="2"/>
+      <c r="A221" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B221" s="6">
+        <v>40.92</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DB9E7-4E13-44D9-A3AE-2C98D6EA1096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFAFAE-E448-4A80-B924-2A28DF9A9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2488,7 +2488,12 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="2"/>
+      <c r="A222" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B222" s="6">
+        <v>41.34</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFAFAE-E448-4A80-B924-2A28DF9A9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10921E8F-05D8-40C7-9F53-DF6A8E1FD4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ano</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>31-04-2023</t>
+  </si>
+  <si>
+    <t>31-06-2023</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="G232" sqref="G232"/>
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2499,12 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="2"/>
+      <c r="A223" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B223" s="6">
+        <v>43.38</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10921E8F-05D8-40C7-9F53-DF6A8E1FD4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA224CA6-59AC-43BD-82A9-47D8D9384558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2507,12 @@
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="2"/>
+      <c r="A224" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B224" s="6">
+        <v>41.94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA224CA6-59AC-43BD-82A9-47D8D9384558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F0095-AD72-428F-9ABA-38F7A00663D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -396,6 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +714,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2514,6 +2515,47 @@
         <v>41.94</v>
       </c>
     </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="8">
+        <v>45169</v>
+      </c>
+      <c r="B225" s="6">
+        <v>42.18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="8"/>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="8"/>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="8"/>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="8"/>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="8"/>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="8"/>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="8"/>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="8"/>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="8"/>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="8"/>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F0095-AD72-428F-9ABA-38F7A00663D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA3876-DAB4-4E83-B8DA-6921E59F1522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>ano</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>31-06-2023</t>
+  </si>
+  <si>
+    <t>31-09-2023</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
   </sheetPr>
   <dimension ref="A1:B236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2524,7 +2527,12 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="8"/>
+      <c r="A226" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B226" s="6">
+        <v>42.24</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA3876-DAB4-4E83-B8DA-6921E59F1522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977FA3F1-4784-4D0A-AC8D-F0B2AE82C942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2535,7 +2535,12 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="8"/>
+      <c r="A227" s="8">
+        <v>45230</v>
+      </c>
+      <c r="B227" s="6">
+        <v>42.48</v>
+      </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977FA3F1-4784-4D0A-AC8D-F0B2AE82C942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428830E1-4097-410E-8FC6-D25FA6CCFF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>ano</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>31-09-2023</t>
+  </si>
+  <si>
+    <t>31-11-2023</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
   <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2543,7 +2546,12 @@
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="8"/>
+      <c r="A228" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B228" s="6">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428830E1-4097-410E-8FC6-D25FA6CCFF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6D43D-5412-472B-BA86-6B585E4B4F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,7 @@
   <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2554,7 +2554,12 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="8"/>
+      <c r="A229" s="8">
+        <v>45291</v>
+      </c>
+      <c r="B229" s="6">
+        <v>42.42</v>
+      </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6D43D-5412-472B-BA86-6B585E4B4F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627740C-95B5-4C65-A797-B36E326A6CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,7 @@
   <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2562,7 +2562,12 @@
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="8"/>
+      <c r="A230" s="8">
+        <v>45322</v>
+      </c>
+      <c r="B230" s="6">
+        <v>41.94</v>
+      </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627740C-95B5-4C65-A797-B36E326A6CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48AABB-CB27-4373-9C30-3B91C87EFEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>ano</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>31-11-2023</t>
+  </si>
+  <si>
+    <t>31-02-2024</t>
   </si>
 </sst>
 </file>
@@ -720,10 +723,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2570,7 +2573,12 @@
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="8"/>
+      <c r="A231" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B231" s="6">
+        <v>44.52</v>
+      </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
@@ -2586,6 +2594,60 @@
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="8"/>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="8"/>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="8"/>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="8"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="8"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="8"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="8"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="8"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="8"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="8"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="8"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="8"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="8"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="8"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="8"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="8"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="8"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48AABB-CB27-4373-9C30-3B91C87EFEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B453B6E-65FC-4385-AA1A-0184015EF953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
   <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2581,7 +2581,12 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="8"/>
+      <c r="A232" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B232" s="6">
+        <v>43.32</v>
+      </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B453B6E-65FC-4385-AA1A-0184015EF953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B2C770-43F8-4358-9737-73C51523ABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="-90" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leite_ilheus" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ano</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>31-02-2024</t>
+  </si>
+  <si>
+    <t>31-04-2024</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
   <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2589,7 +2592,12 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="8"/>
+      <c r="A233" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B233" s="6">
+        <v>42.66</v>
+      </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B2C770-43F8-4358-9737-73C51523ABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA4D4CA-7172-4F86-AF9D-66D8E6EF0A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="-90" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leite_ilheus" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2600,7 +2600,12 @@
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="8"/>
+      <c r="A234" s="8">
+        <v>45443</v>
+      </c>
+      <c r="B234" s="6">
+        <v>41.58</v>
+      </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA4D4CA-7172-4F86-AF9D-66D8E6EF0A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F060B73-7955-4972-93CE-CE27D12C7620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>ano</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>31-04-2024</t>
+  </si>
+  <si>
+    <t>31-06-2024</t>
   </si>
 </sst>
 </file>
@@ -726,10 +729,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2608,64 +2611,162 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="8"/>
+      <c r="A235" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B235" s="6">
+        <v>41.16</v>
+      </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="8"/>
+      <c r="A236" s="2"/>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="8"/>
+      <c r="A237" s="2"/>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="8"/>
+      <c r="A238" s="2"/>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="8"/>
+      <c r="A239" s="2"/>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="8"/>
+      <c r="A240" s="2"/>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="8"/>
+      <c r="A241" s="2"/>
     </row>
     <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="8"/>
+      <c r="A242" s="2"/>
     </row>
     <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="8"/>
+      <c r="A243" s="2"/>
     </row>
     <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="8"/>
+      <c r="A244" s="2"/>
     </row>
     <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="8"/>
+      <c r="A245" s="2"/>
     </row>
     <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="8"/>
+      <c r="A246" s="2"/>
     </row>
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="8"/>
+      <c r="A247" s="2"/>
     </row>
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="8"/>
+      <c r="A248" s="2"/>
     </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="8"/>
+      <c r="A249" s="2"/>
     </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="8"/>
+      <c r="A250" s="2"/>
     </row>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="8"/>
+      <c r="A251" s="2"/>
     </row>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="8"/>
+      <c r="A252" s="2"/>
     </row>
     <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="8"/>
+      <c r="A253" s="2"/>
     </row>
     <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="8"/>
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="5"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="5"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="5"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="5"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="5"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="5"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="5"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="5"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="5"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="5"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="5"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="5"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="5"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="5"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="5"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="5"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="5"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="5"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="5"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="5"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="5"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="5"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="5"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="5"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="5"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="5"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="5"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="5"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="5"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="5"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F060B73-7955-4972-93CE-CE27D12C7620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921263A-8FA5-456E-8D30-3CD9A0BC9375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2619,7 +2619,12 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="2"/>
+      <c r="A236" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B236" s="6">
+        <v>41.16</v>
+      </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921263A-8FA5-456E-8D30-3CD9A0BC9375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931A5E3-0920-488B-A059-4433967BFCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2627,7 +2627,12 @@
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="2"/>
+      <c r="A237" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B237" s="6">
+        <v>43.02</v>
+      </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931A5E3-0920-488B-A059-4433967BFCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212CF4C-4F3B-4557-ADF3-12F59A23469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>ano</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>31-06-2024</t>
+  </si>
+  <si>
+    <t>31-09-2024</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2638,12 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="2"/>
+      <c r="A238" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B238" s="6">
+        <v>41.64</v>
+      </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212CF4C-4F3B-4557-ADF3-12F59A23469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43FFFD7-3546-45D3-B420-8766A5BBF455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2646,7 +2646,12 @@
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="2"/>
+      <c r="A239" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B239" s="6">
+        <v>62.52</v>
+      </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43FFFD7-3546-45D3-B420-8766A5BBF455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC24E8-B757-4841-932D-40B11339F88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>ano</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>31-09-2024</t>
+  </si>
+  <si>
+    <t>31-11-2024</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2654,7 +2657,12 @@
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="2"/>
+      <c r="A240" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B240" s="6">
+        <v>53.52</v>
+      </c>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC24E8-B757-4841-932D-40B11339F88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB5D2E-8540-442E-A2F9-CC9D6E4638B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2664,52 +2664,57 @@
         <v>53.52</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="2"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B241" s="6">
+        <v>56.46</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
     </row>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
     </row>
     <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB5D2E-8540-442E-A2F9-CC9D6E4638B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076AB1E4-562A-4B3E-B436-8776E536AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2673,7 +2673,12 @@
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="2"/>
+      <c r="A242" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B242" s="6">
+        <v>52.8</v>
+      </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076AB1E4-562A-4B3E-B436-8776E536AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E4AE6-2486-4036-884F-9EA46CD6638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>ano</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>31-11-2024</t>
+  </si>
+  <si>
+    <t>31-02-2025</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2681,7 +2684,12 @@
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="2"/>
+      <c r="A243" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B243" s="6">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E4AE6-2486-4036-884F-9EA46CD6638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1150A5F9-49E6-4FA0-ADED-76DF8171CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leite_ilheus" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2692,7 +2692,12 @@
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="2"/>
+      <c r="A244" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B244" s="6">
+        <v>51.24</v>
+      </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1150A5F9-49E6-4FA0-ADED-76DF8171CD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC163066-ECCE-45D0-ADE5-3373FE42746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>ano</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>31-02-2025</t>
+  </si>
+  <si>
+    <t>31-04-2025</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2700,7 +2703,12 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="2"/>
+      <c r="A245" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B245" s="6">
+        <v>57.78</v>
+      </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4F56F-BE6A-463E-A006-0CF15ADD3D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="leite_ilheus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="leite_ilheus" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>ano</t>
   </si>
@@ -334,23 +351,26 @@
   </si>
   <si>
     <t>31-04-2025</t>
+  </si>
+  <si>
+    <t>31-06-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -364,34 +384,34 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,291 +429,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -896,23 +633,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScale="100" workbookViewId="0">
-      <selection activeCell="B246" activeCellId="0" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,39 +658,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2" s="3">
-        <v>6.8399999999999999</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>6.4199999999999999</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4" s="3">
-        <v>6.2999999999999998</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>6.3600000000000003</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
@@ -960,15 +698,15 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>6.4800000000000004</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
@@ -976,79 +714,79 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9" s="3">
-        <v>6.6600000000000001</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>6.3600000000000003</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11" s="3">
-        <v>6.4199999999999999</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>6.4199999999999999</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13" s="3">
-        <v>6.4199999999999999</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14" s="3">
-        <v>6.3600000000000003</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>6.2999999999999998</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16" s="3">
-        <v>6.1200000000000001</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>6.0599999999999996</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
@@ -1056,111 +794,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>6.1200000000000001</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20" s="3">
-        <v>6.1200000000000001</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21" s="3">
-        <v>6.1200000000000001</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3">
-        <v>6.2400000000000002</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23" s="3">
-        <v>6.1799999999999997</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>6.2400000000000002</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25" s="3">
-        <v>6.1799999999999997</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26" s="3">
-        <v>6.1799999999999997</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>6.1799999999999997</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28" s="3">
-        <v>6.1799999999999997</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="3">
-        <v>6.1799999999999997</v>
-      </c>
-    </row>
-    <row r="30" ht="12.75">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30" s="3">
-        <v>6.1200000000000001</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="3">
-        <v>6.1200000000000001</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
@@ -1168,39 +906,39 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="33" ht="12.75">
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33" s="3">
-        <v>7.8600000000000003</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="3">
-        <v>8.6400000000000006</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
@@ -1208,47 +946,47 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="38" ht="12.75">
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38" s="3">
-        <v>8.3399999999999999</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3">
-        <v>8.1600000000000001</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40" s="3">
-        <v>8.4000000000000004</v>
-      </c>
-    </row>
-    <row r="41" ht="12.75">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="3">
-        <v>8.6400000000000006</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42" s="3">
-        <v>8.6400000000000006</v>
-      </c>
-    </row>
-    <row r="43" ht="12.75">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1256,15 +994,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" ht="12.75">
+    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44" s="3">
-        <v>9.1799999999999997</v>
-      </c>
-    </row>
-    <row r="45" ht="12.75">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
@@ -1272,23 +1010,23 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="46" ht="12.75">
+    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="47" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47" s="3">
-        <v>8.6400000000000006</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -1296,15 +1034,15 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="49" ht="12.75">
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
@@ -1312,39 +1050,39 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="51" ht="12.75">
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>8.8200000000000003</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52" s="3">
-        <v>8.6400000000000006</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="3">
-        <v>8.6400000000000006</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54" s="3">
-        <v>8.5199999999999996</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -1352,15 +1090,15 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="56" ht="12.75">
+    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56" s="3">
-        <v>8.8200000000000003</v>
-      </c>
-    </row>
-    <row r="57" ht="12.75">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
@@ -1368,39 +1106,39 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="58" ht="12.75">
+    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="3">
-        <v>9.1799999999999997</v>
-      </c>
-    </row>
-    <row r="59" ht="12.75">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59" s="3">
-        <v>9.0600000000000005</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="3">
-        <v>8.7599999999999998</v>
-      </c>
-    </row>
-    <row r="61" ht="12.75">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61" s="3">
-        <v>8.7599999999999998</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
@@ -1408,15 +1146,15 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="63" ht="12.75">
+    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="3">
-        <v>8.8200000000000003</v>
-      </c>
-    </row>
-    <row r="64" ht="12.75">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
@@ -1424,7 +1162,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="65" ht="12.75">
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1170,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="66" ht="12.75">
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
@@ -1440,55 +1178,55 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="67" ht="12.75">
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="3">
-        <v>8.8200000000000003</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="69" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="70" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="3">
-        <v>8.7599999999999998</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71" s="3">
-        <v>8.8200000000000003</v>
-      </c>
-    </row>
-    <row r="72" ht="12.75">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="73" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
@@ -1496,23 +1234,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" ht="12.75">
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="75" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="76" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
@@ -1520,23 +1258,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" ht="12.75">
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="78" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="79" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -1544,39 +1282,39 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="80" ht="12.75">
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80" s="3">
-        <v>8.9399999999999995</v>
-      </c>
-    </row>
-    <row r="81" ht="12.75">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81" s="3">
-        <v>9.6600000000000001</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="3">
-        <v>9.1799999999999997</v>
-      </c>
-    </row>
-    <row r="83" ht="12.75">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83" s="3">
-        <v>9.3599999999999994</v>
-      </c>
-    </row>
-    <row r="84" ht="12.75">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1322,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="85" ht="12.75">
+    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
@@ -1592,7 +1330,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="86" ht="12.75">
+    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
@@ -1600,15 +1338,15 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="87" ht="12.75">
+    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="3">
-        <v>9.4800000000000004</v>
-      </c>
-    </row>
-    <row r="88" ht="12.75">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
@@ -1616,31 +1354,31 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="89" ht="12.75">
+    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="3">
-        <v>9.6600000000000001</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90" s="3">
-        <v>11.279999999999999</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="3">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
@@ -1648,15 +1386,15 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="93" ht="12.75">
+    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93" s="3">
-        <v>13.619999999999999</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -1664,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" ht="12.75">
+    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
@@ -1672,23 +1410,23 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="96" ht="12.75">
+    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B96" s="3">
-        <v>12.359999999999999</v>
-      </c>
-    </row>
-    <row r="97" ht="12.75">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97" s="3">
-        <v>12.359999999999999</v>
-      </c>
-    </row>
-    <row r="98" ht="12.75">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
@@ -1696,23 +1434,23 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="99" ht="12.75">
+    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="3">
-        <v>12.119999999999999</v>
-      </c>
-    </row>
-    <row r="100" ht="12.75">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100" s="3">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="101" ht="12.75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
@@ -1720,7 +1458,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="102" ht="12.75">
+    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
@@ -1728,7 +1466,7 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="103" ht="12.75">
+    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
@@ -1736,15 +1474,15 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="104" ht="12.75">
+    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104" s="3">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="105" ht="12.75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
@@ -1752,7 +1490,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="106" ht="12.75">
+    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
@@ -1760,7 +1498,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="107" ht="12.75">
+    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
@@ -1768,39 +1506,39 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="108" ht="12.75">
+    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B108" s="3">
-        <v>13.859999999999999</v>
-      </c>
-    </row>
-    <row r="109" ht="12.75">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109" s="3">
-        <v>13.619999999999999</v>
-      </c>
-    </row>
-    <row r="110" ht="12.75">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110" s="3">
-        <v>13.140000000000001</v>
-      </c>
-    </row>
-    <row r="111" ht="12.75">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="3">
-        <v>13.619999999999999</v>
-      </c>
-    </row>
-    <row r="112" ht="12.75">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
@@ -1808,7 +1546,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="113" ht="12.75">
+    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
@@ -1816,7 +1554,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="114" ht="12.75">
+    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
@@ -1824,7 +1562,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="115" ht="12.75">
+    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>49</v>
       </c>
@@ -1832,7 +1570,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="116" ht="12.75">
+    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
@@ -1840,7 +1578,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="117" ht="12.75">
+    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
@@ -1848,15 +1586,15 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="118" ht="12.75">
+    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>13.619999999999999</v>
-      </c>
-    </row>
-    <row r="119" ht="12.75">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
@@ -1864,7 +1602,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="120" ht="12.75">
+    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>51</v>
       </c>
@@ -1872,7 +1610,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="121" ht="12.75">
+    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
@@ -1880,15 +1618,15 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="122" ht="12.75">
+    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122" s="3">
-        <v>13.619999999999999</v>
-      </c>
-    </row>
-    <row r="123" ht="12.75">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>52</v>
       </c>
@@ -1896,7 +1634,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="124" ht="12.75">
+    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
@@ -1904,23 +1642,23 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="125" ht="12.75">
+    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>14.039999999999999</v>
-      </c>
-    </row>
-    <row r="126" ht="12.75">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126" s="3">
-        <v>15.300000000000001</v>
-      </c>
-    </row>
-    <row r="127" ht="12.75">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
@@ -1928,7 +1666,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="128" ht="12.75">
+    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
@@ -1936,7 +1674,7 @@
         <v>14.82</v>
       </c>
     </row>
-    <row r="129" ht="12.75">
+    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
@@ -1944,7 +1682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" ht="12.75">
+    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
@@ -1952,7 +1690,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="131" ht="12.75">
+    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
@@ -1960,15 +1698,15 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="132" ht="12.75">
+    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B132" s="3">
-        <v>15.359999999999999</v>
-      </c>
-    </row>
-    <row r="133" ht="12.75">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
@@ -1976,7 +1714,7 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="134" ht="12.75">
+    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
@@ -1984,7 +1722,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="135" ht="12.75">
+    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
@@ -1992,15 +1730,15 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="136" ht="12.75">
+    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136" s="3">
-        <v>16.859999999999999</v>
-      </c>
-    </row>
-    <row r="137" ht="12.75">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
@@ -2008,23 +1746,23 @@
         <v>17.34</v>
       </c>
     </row>
-    <row r="138" ht="12.75">
+    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138" s="3">
-        <v>17.879999999999999</v>
-      </c>
-    </row>
-    <row r="139" ht="12.75">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="3">
-        <v>18.120000000000001</v>
-      </c>
-    </row>
-    <row r="140" ht="12.75">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
@@ -2032,7 +1770,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="141" ht="12.75">
+    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
@@ -2040,7 +1778,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="142" ht="12.75">
+    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
@@ -2048,7 +1786,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="143" ht="12.75">
+    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
@@ -2056,7 +1794,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="144" ht="12.75">
+    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
@@ -2064,15 +1802,15 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="145" ht="12.75">
+    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145" s="3">
-        <v>24.059999999999999</v>
-      </c>
-    </row>
-    <row r="146" ht="12.75">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
@@ -2080,15 +1818,15 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="147" ht="12.75">
+    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B147" s="3">
-        <v>19.859999999999999</v>
-      </c>
-    </row>
-    <row r="148" ht="12.75">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
@@ -2096,31 +1834,31 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="149" ht="12.75">
+    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="3">
-        <v>18.960000000000001</v>
-      </c>
-    </row>
-    <row r="150" ht="12.75">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150" s="3">
-        <v>20.219999999999999</v>
-      </c>
-    </row>
-    <row r="151" ht="12.75">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B151" s="3">
-        <v>20.879999999999999</v>
-      </c>
-    </row>
-    <row r="152" ht="12.75">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
@@ -2128,7 +1866,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="153" ht="12.75">
+    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
@@ -2136,7 +1874,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="154" ht="12.75">
+    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
@@ -2144,7 +1882,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="155" ht="12.75">
+    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
@@ -2152,15 +1890,15 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="156" ht="12.75">
+    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="3">
-        <v>20.460000000000001</v>
-      </c>
-    </row>
-    <row r="157" ht="12.75">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
@@ -2168,7 +1906,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="158" ht="12.75">
+    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
@@ -2176,15 +1914,15 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="159" ht="12.75">
+    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="3">
-        <v>20.579999999999998</v>
-      </c>
-    </row>
-    <row r="160" ht="12.75">
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
@@ -2192,15 +1930,15 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="161" ht="12.75">
+    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="3">
-        <v>20.940000000000001</v>
-      </c>
-    </row>
-    <row r="162" ht="12.75">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
@@ -2208,39 +1946,39 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="163" ht="12.75">
+    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="3">
-        <v>21.120000000000001</v>
-      </c>
-    </row>
-    <row r="164" ht="12.75">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164" s="3">
-        <v>21.120000000000001</v>
-      </c>
-    </row>
-    <row r="165" ht="12.75">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165" s="3">
-        <v>21.059999999999999</v>
-      </c>
-    </row>
-    <row r="166" ht="12.75">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B166" s="3">
-        <v>20.699999999999999</v>
-      </c>
-    </row>
-    <row r="167" ht="12.75">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
@@ -2248,39 +1986,39 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="168" ht="12.75">
+    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B168" s="3">
-        <v>22.379999999999999</v>
-      </c>
-    </row>
-    <row r="169" ht="12.75">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169" s="3">
-        <v>27.059999999999999</v>
-      </c>
-    </row>
-    <row r="170" ht="12.75">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170" s="3">
-        <v>21.960000000000001</v>
-      </c>
-    </row>
-    <row r="171" ht="12.75">
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B171" s="3">
-        <v>20.879999999999999</v>
-      </c>
-    </row>
-    <row r="172" ht="12.75">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
@@ -2288,39 +2026,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" ht="12.75">
+    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B173" s="3">
-        <v>20.940000000000001</v>
-      </c>
-    </row>
-    <row r="174" ht="12.75">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174" s="3">
-        <v>21.059999999999999</v>
-      </c>
-    </row>
-    <row r="175" ht="12.75">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B175" s="3">
-        <v>20.640000000000001</v>
-      </c>
-    </row>
-    <row r="176" ht="12.75">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176" s="3">
-        <v>20.940000000000001</v>
-      </c>
-    </row>
-    <row r="177" ht="12.75">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
@@ -2328,63 +2066,63 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="178" ht="12.75">
+    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B178" s="3">
-        <v>20.219999999999999</v>
-      </c>
-    </row>
-    <row r="179" ht="12.75">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179" s="3">
-        <v>21.719999999999999</v>
-      </c>
-    </row>
-    <row r="180" ht="12.75">
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B180" s="3">
-        <v>21.600000000000001</v>
-      </c>
-    </row>
-    <row r="181" ht="12.75">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181" s="3">
-        <v>21.600000000000001</v>
-      </c>
-    </row>
-    <row r="182" ht="12.75">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182" s="3">
-        <v>21.960000000000001</v>
-      </c>
-    </row>
-    <row r="183" ht="12.75">
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B183" s="3">
-        <v>23.280000000000001</v>
-      </c>
-    </row>
-    <row r="184" ht="12.75">
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184" s="3">
-        <v>22.379999999999999</v>
-      </c>
-    </row>
-    <row r="185" ht="12.75">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>78</v>
       </c>
@@ -2392,23 +2130,23 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="186" ht="12.75">
+    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186" s="3">
-        <v>20.940000000000001</v>
-      </c>
-    </row>
-    <row r="187" ht="12.75">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B187" s="3">
-        <v>20.940000000000001</v>
-      </c>
-    </row>
-    <row r="188" ht="12.75">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
@@ -2416,39 +2154,39 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="189" ht="12.75">
+    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189" s="3">
-        <v>22.379999999999999</v>
-      </c>
-    </row>
-    <row r="190" ht="12.75">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="3">
-        <v>24.719999999999999</v>
-      </c>
-    </row>
-    <row r="191" ht="12.75">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191" s="3">
-        <v>26.640000000000001</v>
-      </c>
-    </row>
-    <row r="192" ht="12.75">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B192" s="3">
-        <v>26.399999999999999</v>
-      </c>
-    </row>
-    <row r="193" ht="12.75">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
@@ -2456,7 +2194,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="194" ht="12.75">
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
@@ -2464,15 +2202,15 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="195" ht="12.75">
+    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B195" s="3">
-        <v>24.899999999999999</v>
-      </c>
-    </row>
-    <row r="196" ht="12.75">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
@@ -2480,39 +2218,39 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="197" ht="12.75">
+    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B197" s="3">
-        <v>20.280000000000001</v>
-      </c>
-    </row>
-    <row r="198" ht="12.75">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
       <c r="B198" s="3">
-        <v>18.719999999999999</v>
-      </c>
-    </row>
-    <row r="199" ht="12.75">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B199" s="3">
-        <v>22.800000000000001</v>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
       <c r="B200" s="3">
-        <v>21.960000000000001</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
@@ -2521,7 +2259,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>86</v>
       </c>
@@ -2529,31 +2267,31 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B203" s="3">
-        <v>28.440000000000001</v>
-      </c>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B204" s="3">
-        <v>27.960000000000001</v>
-      </c>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
+        <v>27.96</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
       <c r="B205" s="3">
-        <v>28.559999999999999</v>
-      </c>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44592</v>
       </c>
@@ -2561,79 +2299,79 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B207" s="3">
-        <v>28.800000000000001</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>44651</v>
       </c>
       <c r="B208" s="3">
-        <v>29.579999999999998</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B209" s="3">
-        <v>29.940000000000001</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>44712</v>
       </c>
       <c r="B210" s="3">
-        <v>31.260000000000002</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B211" s="3">
-        <v>32.460000000000001</v>
-      </c>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
+        <v>32.46</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>44773</v>
       </c>
       <c r="B212" s="3">
-        <v>40.560000000000002</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+        <v>40.56</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>44804</v>
       </c>
       <c r="B213" s="3">
-        <v>46.200000000000003</v>
-      </c>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B214" s="3">
-        <v>41.700000000000003</v>
-      </c>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>44865</v>
       </c>
       <c r="B215" s="3">
-        <v>41.640000000000001</v>
-      </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+        <v>41.64</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>93</v>
       </c>
@@ -2641,23 +2379,23 @@
         <v>41.82</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>44926</v>
       </c>
       <c r="B217" s="3">
-        <v>42.240000000000002</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>44957</v>
       </c>
       <c r="B218" s="3">
-        <v>43.200000000000003</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>94</v>
       </c>
@@ -2665,47 +2403,47 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>45016</v>
       </c>
       <c r="B220" s="3">
-        <v>40.979999999999997</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+        <v>40.98</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B221" s="3">
-        <v>40.920000000000002</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+        <v>40.92</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>45077</v>
       </c>
       <c r="B222" s="3">
-        <v>41.340000000000003</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
+        <v>41.34</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B223" s="3">
-        <v>43.380000000000003</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
+        <v>43.38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>45138</v>
       </c>
       <c r="B224" s="3">
-        <v>41.939999999999998</v>
-      </c>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>45169</v>
       </c>
@@ -2713,55 +2451,55 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B226" s="3">
-        <v>42.240000000000002</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>45230</v>
       </c>
       <c r="B227" s="3">
-        <v>42.479999999999997</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+        <v>42.48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B228" s="3">
-        <v>42.299999999999997</v>
-      </c>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>45291</v>
       </c>
       <c r="B229" s="3">
-        <v>42.420000000000002</v>
-      </c>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
+        <v>42.42</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>45322</v>
       </c>
       <c r="B230" s="3">
-        <v>41.939999999999998</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B231" s="3">
-        <v>44.520000000000003</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>45382</v>
       </c>
@@ -2769,239 +2507,242 @@
         <v>43.32</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B233" s="3">
-        <v>42.659999999999997</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
+        <v>42.66</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>45443</v>
       </c>
       <c r="B234" s="3">
-        <v>41.579999999999998</v>
-      </c>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B235" s="3">
-        <v>41.159999999999997</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>45504</v>
       </c>
       <c r="B236" s="3">
-        <v>41.159999999999997</v>
-      </c>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>45535</v>
       </c>
       <c r="B237" s="3">
-        <v>43.020000000000003</v>
-      </c>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
+        <v>43.02</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B238" s="3">
-        <v>41.640000000000001</v>
-      </c>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
+        <v>41.64</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>45596</v>
       </c>
       <c r="B239" s="3">
-        <v>62.520000000000003</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
+        <v>62.52</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="3">
-        <v>53.520000000000003</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
+        <v>53.52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>45657</v>
       </c>
       <c r="B241" s="3">
-        <v>56.460000000000001</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
+        <v>56.46</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>45688</v>
       </c>
       <c r="B242" s="3">
-        <v>52.799999999999997</v>
-      </c>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B243" s="3">
-        <v>52.140000000000001</v>
-      </c>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
+        <v>52.14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>45747</v>
       </c>
       <c r="B244" s="3">
-        <v>51.240000000000002</v>
-      </c>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
+        <v>51.24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B245" s="3">
-        <v>57.780000000000001</v>
-      </c>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
+        <v>57.78</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>45808</v>
       </c>
       <c r="B246">
-        <v>57.359999999999999</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="4"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
+        <v>57.36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B247" s="3">
+        <v>60.48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4F56F-BE6A-463E-A006-0CF15ADD3D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24D6CCF-26D0-4FB7-A551-B50C0BEE8138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="64"/>
@@ -372,6 +372,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,6 +417,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +653,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2628,7 +2636,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
+      <c r="A248" s="4">
+        <v>45869</v>
+      </c>
+      <c r="B248" s="7">
+        <v>57.12</v>
+      </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24D6CCF-26D0-4FB7-A551-B50C0BEE8138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F55A1-2EAA-4D3D-97EA-1329134D271F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -653,7 +656,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2644,7 +2647,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
+      <c r="A249" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B249" s="7">
+        <v>57.84</v>
+      </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F55A1-2EAA-4D3D-97EA-1329134D271F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8DB89B-E6BD-43CC-8F45-C81A77F11655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>ano</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>31-06-2025</t>
+  </si>
+  <si>
+    <t>31-09-2025</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2658,12 @@
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
+      <c r="A250" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B250" s="7">
+        <v>55.98</v>
+      </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8DB89B-E6BD-43CC-8F45-C81A77F11655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A41548-390A-4948-852C-270820B55F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2666,12 @@
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
+      <c r="A251" s="4">
+        <v>45961</v>
+      </c>
+      <c r="B251" s="7">
+        <v>58.56</v>
+      </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A41548-390A-4948-852C-270820B55F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC5D4C-8962-4B4A-9347-30C584CB7112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>ano</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>31-09-2025</t>
+  </si>
+  <si>
+    <t>31-11-2025</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2674,7 +2677,12 @@
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
+      <c r="A252" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B252" s="7">
+        <v>62.1</v>
+      </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>

--- a/data/datasets_produtos/ilheus/leite_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/leite_ilheus.xlsx
@@ -1,36 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC5D4C-8962-4B4A-9347-30C584CB7112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="leite_ilheus" sheetId="1" r:id="rId1"/>
+    <sheet name="leite_ilheus" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
@@ -368,24 +348,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color indexed="64"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,37 +373,34 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +418,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -650,24 +905,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView topLeftCell="A222" zoomScale="100" workbookViewId="0">
+      <selection activeCell="B253" activeCellId="0" sqref="B253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,39 +929,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2" s="3">
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.8399999999999999</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.4199999999999999</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4" s="3">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.3600000000000003</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
@@ -715,15 +969,15 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.4800000000000004</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
@@ -731,79 +985,79 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9" s="3">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.6600000000000001</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.3600000000000003</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11" s="3">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.4199999999999999</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.4199999999999999</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13" s="3">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.4199999999999999</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14" s="3">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.3600000000000003</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16" s="3">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.1200000000000001</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.0599999999999996</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
@@ -811,111 +1065,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.1200000000000001</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20" s="3">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.1200000000000001</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21" s="3">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.1200000000000001</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.2400000000000002</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23" s="3">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1799999999999997</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.2400000000000002</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25" s="3">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1799999999999997</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26" s="3">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1799999999999997</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1799999999999997</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28" s="3">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1799999999999997</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="3">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1799999999999997</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30" s="3">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1200000000000001</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="3">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.1200000000000001</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
@@ -923,39 +1177,39 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" ht="12.75">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33" s="3">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.8600000000000003</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="3">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.6400000000000006</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
@@ -963,47 +1217,47 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" ht="12.75">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38" s="3">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.3399999999999999</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.1600000000000001</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40" s="3">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="3">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.6400000000000006</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42" s="3">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.6400000000000006</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1011,15 +1265,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" ht="12.75">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44" s="3">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.1799999999999997</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
@@ -1027,23 +1281,23 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" ht="12.75">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47" s="3">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.6400000000000006</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -1051,15 +1305,15 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" ht="12.75">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
@@ -1067,39 +1321,39 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" ht="12.75">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.8200000000000003</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52" s="3">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.6400000000000006</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="3">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.6400000000000006</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54" s="3">
-        <v>8.52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.5199999999999996</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -1107,15 +1361,15 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" ht="12.75">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56" s="3">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.8200000000000003</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
@@ -1123,39 +1377,39 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" ht="12.75">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="3">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.1799999999999997</v>
+      </c>
+    </row>
+    <row r="59" ht="12.75">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59" s="3">
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.0600000000000005</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="3">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.7599999999999998</v>
+      </c>
+    </row>
+    <row r="61" ht="12.75">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61" s="3">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.7599999999999998</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
@@ -1163,15 +1417,15 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" ht="12.75">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="3">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.8200000000000003</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
@@ -1179,7 +1433,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" ht="12.75">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
@@ -1187,7 +1441,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" ht="12.75">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
@@ -1195,55 +1449,55 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" ht="12.75">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="3">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.8200000000000003</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="69" ht="12.75">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="70" ht="12.75">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="3">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.7599999999999998</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71" s="3">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.8200000000000003</v>
+      </c>
+    </row>
+    <row r="72" ht="12.75">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="73" ht="12.75">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
@@ -1251,23 +1505,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" ht="12.75">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="75" ht="12.75">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="76" ht="12.75">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
@@ -1275,23 +1529,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" ht="12.75">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="78" ht="12.75">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="79" ht="12.75">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -1299,39 +1553,39 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" ht="12.75">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80" s="3">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.9399999999999995</v>
+      </c>
+    </row>
+    <row r="81" ht="12.75">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81" s="3">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.6600000000000001</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="3">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.1799999999999997</v>
+      </c>
+    </row>
+    <row r="83" ht="12.75">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83" s="3">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.3599999999999994</v>
+      </c>
+    </row>
+    <row r="84" ht="12.75">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +1593,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" ht="12.75">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
@@ -1347,7 +1601,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" ht="12.75">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
@@ -1355,15 +1609,15 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" ht="12.75">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="3">
-        <v>9.48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.4800000000000004</v>
+      </c>
+    </row>
+    <row r="88" ht="12.75">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
@@ -1371,31 +1625,31 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" ht="12.75">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="3">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.6600000000000001</v>
+      </c>
+    </row>
+    <row r="90" ht="12.75">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90" s="3">
-        <v>11.28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>11.279999999999999</v>
+      </c>
+    </row>
+    <row r="91" ht="12.75">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="3">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.300000000000001</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
@@ -1403,15 +1657,15 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" ht="12.75">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93" s="3">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.619999999999999</v>
+      </c>
+    </row>
+    <row r="94" ht="12.75">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -1419,7 +1673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" ht="12.75">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
@@ -1427,23 +1681,23 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" ht="12.75">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B96" s="3">
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.359999999999999</v>
+      </c>
+    </row>
+    <row r="97" ht="12.75">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97" s="3">
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.359999999999999</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
@@ -1451,23 +1705,23 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" ht="12.75">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="3">
-        <v>12.12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.119999999999999</v>
+      </c>
+    </row>
+    <row r="100" ht="12.75">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100" s="3">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.300000000000001</v>
+      </c>
+    </row>
+    <row r="101" ht="12.75">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
@@ -1475,7 +1729,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" ht="12.75">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
@@ -1483,7 +1737,7 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" ht="12.75">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
@@ -1491,15 +1745,15 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" ht="12.75">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104" s="3">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.300000000000001</v>
+      </c>
+    </row>
+    <row r="105" ht="12.75">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
@@ -1507,7 +1761,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" ht="12.75">
       <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
@@ -1515,7 +1769,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" ht="12.75">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
@@ -1523,39 +1777,39 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" ht="12.75">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B108" s="3">
-        <v>13.86</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.859999999999999</v>
+      </c>
+    </row>
+    <row r="109" ht="12.75">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109" s="3">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.619999999999999</v>
+      </c>
+    </row>
+    <row r="110" ht="12.75">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110" s="3">
-        <v>13.14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.140000000000001</v>
+      </c>
+    </row>
+    <row r="111" ht="12.75">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="3">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.619999999999999</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
@@ -1563,7 +1817,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" ht="12.75">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
@@ -1571,7 +1825,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" ht="12.75">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
@@ -1579,7 +1833,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" ht="12.75">
       <c r="A115" s="2" t="s">
         <v>49</v>
       </c>
@@ -1587,7 +1841,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" ht="12.75">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
@@ -1595,7 +1849,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" ht="12.75">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
@@ -1603,15 +1857,15 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" ht="12.75">
       <c r="A118" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.619999999999999</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
@@ -1619,7 +1873,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" ht="12.75">
       <c r="A120" s="2" t="s">
         <v>51</v>
       </c>
@@ -1627,7 +1881,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" ht="12.75">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
@@ -1635,15 +1889,15 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" ht="12.75">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122" s="3">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.619999999999999</v>
+      </c>
+    </row>
+    <row r="123" ht="12.75">
       <c r="A123" s="2" t="s">
         <v>52</v>
       </c>
@@ -1651,7 +1905,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" ht="12.75">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
@@ -1659,23 +1913,23 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" ht="12.75">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>14.04</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.039999999999999</v>
+      </c>
+    </row>
+    <row r="126" ht="12.75">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126" s="3">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.300000000000001</v>
+      </c>
+    </row>
+    <row r="127" ht="12.75">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
@@ -1683,7 +1937,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" ht="12.75">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
@@ -1691,7 +1945,7 @@
         <v>14.82</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" ht="12.75">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
@@ -1699,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" ht="12.75">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
@@ -1707,7 +1961,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" ht="12.75">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
@@ -1715,15 +1969,15 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" ht="12.75">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B132" s="3">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.359999999999999</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
@@ -1731,7 +1985,7 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" ht="12.75">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
@@ -1739,7 +1993,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" ht="12.75">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
@@ -1747,15 +2001,15 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" ht="12.75">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136" s="3">
-        <v>16.86</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.859999999999999</v>
+      </c>
+    </row>
+    <row r="137" ht="12.75">
       <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
@@ -1763,23 +2017,23 @@
         <v>17.34</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" ht="12.75">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138" s="3">
-        <v>17.88</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>17.879999999999999</v>
+      </c>
+    </row>
+    <row r="139" ht="12.75">
       <c r="A139" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="3">
-        <v>18.12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18.120000000000001</v>
+      </c>
+    </row>
+    <row r="140" ht="12.75">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
@@ -1787,7 +2041,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" ht="12.75">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
@@ -1795,7 +2049,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" ht="12.75">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
@@ -1803,7 +2057,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" ht="12.75">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
@@ -1811,7 +2065,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" ht="12.75">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
@@ -1819,15 +2073,15 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" ht="12.75">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145" s="3">
-        <v>24.06</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>24.059999999999999</v>
+      </c>
+    </row>
+    <row r="146" ht="12.75">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
@@ -1835,15 +2089,15 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" ht="12.75">
       <c r="A147" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B147" s="3">
-        <v>19.86</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>19.859999999999999</v>
+      </c>
+    </row>
+    <row r="148" ht="12.75">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
@@ -1851,31 +2105,31 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" ht="12.75">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="3">
-        <v>18.96</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18.960000000000001</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150" s="3">
-        <v>20.22</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.219999999999999</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B151" s="3">
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.879999999999999</v>
+      </c>
+    </row>
+    <row r="152" ht="12.75">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
@@ -1883,7 +2137,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" ht="12.75">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
@@ -1891,7 +2145,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" ht="12.75">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
@@ -1899,7 +2153,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" ht="12.75">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
@@ -1907,15 +2161,15 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" ht="12.75">
       <c r="A156" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="3">
-        <v>20.46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.460000000000001</v>
+      </c>
+    </row>
+    <row r="157" ht="12.75">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
@@ -1923,7 +2177,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" ht="12.75">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
@@ -1931,15 +2185,15 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" ht="12.75">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="3">
-        <v>20.58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.579999999999998</v>
+      </c>
+    </row>
+    <row r="160" ht="12.75">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
@@ -1947,15 +2201,15 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" ht="12.75">
       <c r="A161" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="3">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.940000000000001</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
@@ -1963,39 +2217,39 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" ht="12.75">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="3">
-        <v>21.12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.120000000000001</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164" s="3">
-        <v>21.12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.120000000000001</v>
+      </c>
+    </row>
+    <row r="165" ht="12.75">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165" s="3">
-        <v>21.06</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.059999999999999</v>
+      </c>
+    </row>
+    <row r="166" ht="12.75">
       <c r="A166" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B166" s="3">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.699999999999999</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
@@ -2003,39 +2257,39 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" ht="12.75">
       <c r="A168" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B168" s="3">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>22.379999999999999</v>
+      </c>
+    </row>
+    <row r="169" ht="12.75">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169" s="3">
-        <v>27.06</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>27.059999999999999</v>
+      </c>
+    </row>
+    <row r="170" ht="12.75">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170" s="3">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.960000000000001</v>
+      </c>
+    </row>
+    <row r="171" ht="12.75">
       <c r="A171" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B171" s="3">
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.879999999999999</v>
+      </c>
+    </row>
+    <row r="172" ht="12.75">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
@@ -2043,39 +2297,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" ht="12.75">
       <c r="A173" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B173" s="3">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.940000000000001</v>
+      </c>
+    </row>
+    <row r="174" ht="12.75">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174" s="3">
-        <v>21.06</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.059999999999999</v>
+      </c>
+    </row>
+    <row r="175" ht="12.75">
       <c r="A175" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B175" s="3">
-        <v>20.64</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.640000000000001</v>
+      </c>
+    </row>
+    <row r="176" ht="12.75">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176" s="3">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.940000000000001</v>
+      </c>
+    </row>
+    <row r="177" ht="12.75">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
@@ -2083,63 +2337,63 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" ht="12.75">
       <c r="A178" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B178" s="3">
-        <v>20.22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.219999999999999</v>
+      </c>
+    </row>
+    <row r="179" ht="12.75">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179" s="3">
-        <v>21.72</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.719999999999999</v>
+      </c>
+    </row>
+    <row r="180" ht="12.75">
       <c r="A180" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B180" s="3">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.600000000000001</v>
+      </c>
+    </row>
+    <row r="181" ht="12.75">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181" s="3">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.600000000000001</v>
+      </c>
+    </row>
+    <row r="182" ht="12.75">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182" s="3">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>21.960000000000001</v>
+      </c>
+    </row>
+    <row r="183" ht="12.75">
       <c r="A183" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B183" s="3">
-        <v>23.28</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>23.280000000000001</v>
+      </c>
+    </row>
+    <row r="184" ht="12.75">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184" s="3">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>22.379999999999999</v>
+      </c>
+    </row>
+    <row r="185" ht="12.75">
       <c r="A185" s="2" t="s">
         <v>78</v>
       </c>
@@ -2147,23 +2401,23 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" ht="12.75">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186" s="3">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.940000000000001</v>
+      </c>
+    </row>
+    <row r="187" ht="12.75">
       <c r="A187" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B187" s="3">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.940000000000001</v>
+      </c>
+    </row>
+    <row r="188" ht="12.75">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
@@ -2171,39 +2425,39 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" ht="12.75">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189" s="3">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>22.379999999999999</v>
+      </c>
+    </row>
+    <row r="190" ht="12.75">
       <c r="A190" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="3">
-        <v>24.72</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>24.719999999999999</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191" s="3">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>26.640000000000001</v>
+      </c>
+    </row>
+    <row r="192" ht="12.75">
       <c r="A192" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B192" s="3">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>26.399999999999999</v>
+      </c>
+    </row>
+    <row r="193" ht="12.75">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
@@ -2211,7 +2465,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" ht="12.75">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
@@ -2219,15 +2473,15 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" ht="12.75">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B195" s="3">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>24.899999999999999</v>
+      </c>
+    </row>
+    <row r="196" ht="12.75">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
@@ -2235,39 +2489,39 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" ht="12.75">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B197" s="3">
-        <v>20.28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>20.280000000000001</v>
+      </c>
+    </row>
+    <row r="198" ht="12.75">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
       <c r="B198" s="3">
-        <v>18.72</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18.719999999999999</v>
+      </c>
+    </row>
+    <row r="199" ht="12.75">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B199" s="3">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.800000000000001</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
       <c r="B200" s="3">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21.960000000000001</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
@@ -2276,7 +2530,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>86</v>
       </c>
@@ -2284,31 +2538,31 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B203" s="3">
-        <v>28.44</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28.440000000000001</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B204" s="3">
-        <v>27.96</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27.960000000000001</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
       <c r="B205" s="3">
-        <v>28.56</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28.559999999999999</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2">
         <v>44592</v>
       </c>
@@ -2316,79 +2570,79 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B207" s="3">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28.800000000000001</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2">
         <v>44651</v>
       </c>
       <c r="B208" s="3">
-        <v>29.58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29.579999999999998</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B209" s="3">
-        <v>29.94</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29.940000000000001</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2">
         <v>44712</v>
       </c>
       <c r="B210" s="3">
-        <v>31.26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31.260000000000002</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B211" s="3">
-        <v>32.46</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32.460000000000001</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="4">
         <v>44773</v>
       </c>
       <c r="B212" s="3">
-        <v>40.56</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40.560000000000002</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="4">
         <v>44804</v>
       </c>
       <c r="B213" s="3">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46.200000000000003</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B214" s="3">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.700000000000003</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="4">
         <v>44865</v>
       </c>
       <c r="B215" s="3">
-        <v>41.64</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.640000000000001</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>93</v>
       </c>
@@ -2396,23 +2650,23 @@
         <v>41.82</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="4">
         <v>44926</v>
       </c>
       <c r="B217" s="3">
-        <v>42.24</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.240000000000002</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="4">
         <v>44957</v>
       </c>
       <c r="B218" s="3">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.200000000000003</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>94</v>
       </c>
@@ -2420,47 +2674,47 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="4">
         <v>45016</v>
       </c>
       <c r="B220" s="3">
-        <v>40.98</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40.979999999999997</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B221" s="3">
-        <v>40.92</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40.920000000000002</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="4">
         <v>45077</v>
       </c>
       <c r="B222" s="3">
-        <v>41.34</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.340000000000003</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B223" s="3">
-        <v>43.38</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.380000000000003</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="4">
         <v>45138</v>
       </c>
       <c r="B224" s="3">
-        <v>41.94</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.939999999999998</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="6">
         <v>45169</v>
       </c>
@@ -2468,55 +2722,55 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B226" s="3">
-        <v>42.24</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.240000000000002</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="6">
         <v>45230</v>
       </c>
       <c r="B227" s="3">
-        <v>42.48</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.479999999999997</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B228" s="3">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.299999999999997</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="6">
         <v>45291</v>
       </c>
       <c r="B229" s="3">
-        <v>42.42</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.420000000000002</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="6">
         <v>45322</v>
       </c>
       <c r="B230" s="3">
-        <v>41.94</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.939999999999998</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B231" s="3">
-        <v>44.52</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44.520000000000003</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="4">
         <v>45382</v>
       </c>
@@ -2524,267 +2778,274 @@
         <v>43.32</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B233" s="3">
-        <v>42.66</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.659999999999997</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="6">
         <v>45443</v>
       </c>
       <c r="B234" s="3">
-        <v>41.58</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.579999999999998</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B235" s="3">
-        <v>41.16</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.159999999999997</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="4">
         <v>45504</v>
       </c>
       <c r="B236" s="3">
-        <v>41.16</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.159999999999997</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="4">
         <v>45535</v>
       </c>
       <c r="B237" s="3">
-        <v>43.02</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.020000000000003</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B238" s="3">
-        <v>41.64</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41.640000000000001</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="4">
         <v>45596</v>
       </c>
       <c r="B239" s="3">
-        <v>62.52</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62.520000000000003</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="3">
-        <v>53.52</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53.520000000000003</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4">
         <v>45657</v>
       </c>
       <c r="B241" s="3">
-        <v>56.46</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56.460000000000001</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="4">
         <v>45688</v>
       </c>
       <c r="B242" s="3">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52.799999999999997</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B243" s="3">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52.140000000000001</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="4">
         <v>45747</v>
       </c>
       <c r="B244" s="3">
-        <v>51.24</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51.240000000000002</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B245" s="3">
-        <v>57.78</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57.780000000000001</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="4">
         <v>45808</v>
       </c>
       <c r="B246">
-        <v>57.36</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57.359999999999999</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B247" s="3">
-        <v>60.48</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60.479999999999997</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="4">
         <v>45869</v>
       </c>
-      <c r="B248" s="7">
-        <v>57.12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="3">
+        <v>57.119999999999997</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4">
         <v>45900</v>
       </c>
-      <c r="B249" s="7">
-        <v>57.84</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="3">
+        <v>57.840000000000003</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B250" s="7">
-        <v>55.98</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="3">
+        <v>55.979999999999997</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="4">
         <v>45961</v>
       </c>
-      <c r="B251" s="7">
-        <v>58.56</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="3">
+        <v>58.560000000000002</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B252" s="7">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
-    </row>
-    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="3">
+        <v>62.100000000000001</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="4">
+        <v>46022</v>
+      </c>
+      <c r="B253">
+        <v>59.520000000000003</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="5"/>
     </row>
-    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="5"/>
     </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="5"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="5"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="5"/>
     </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="5"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="5"/>
     </row>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="5"/>
     </row>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="5"/>
     </row>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="5"/>
     </row>
-    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="5"/>
     </row>
-    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="5"/>
     </row>
-    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="5"/>
     </row>
-    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="5"/>
     </row>
-    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="5"/>
     </row>
-    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="5"/>
     </row>
-    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="5"/>
     </row>
-    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="5"/>
     </row>
-    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="5"/>
     </row>
-    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="5"/>
     </row>
-    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="5"/>
     </row>
-    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="5"/>
     </row>
-    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="5"/>
     </row>
-    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="5"/>
     </row>
-    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="5"/>
     </row>
-    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="5"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="5"/>
     </row>
-    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="5"/>
     </row>
-    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="5"/>
     </row>
-    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="5"/>
     </row>
-    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>